--- a/Selenium Project/Data_Sheet/Sites_Redirects.xlsx
+++ b/Selenium Project/Data_Sheet/Sites_Redirects.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E9B9A1-CF93-4B81-9E9C-06A712AA430D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD11FA2-F17C-4AAC-BDFA-C3B2988C7CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="18648" windowHeight="11784" tabRatio="653" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$2:$E$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Keywords!$A$1:$E$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Keywords!$A$1:$E$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Testcases!$A$1:$C$2</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t>TCID</t>
   </si>
@@ -71,18 +71,9 @@
     <t>Y</t>
   </si>
   <si>
-    <t>verifylogin</t>
-  </si>
-  <si>
     <t>username_id</t>
   </si>
   <si>
-    <t>SigninButton_xpath</t>
-  </si>
-  <si>
-    <t>waitforelement</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -92,32 +83,47 @@
     <t>lastTestStep</t>
   </si>
   <si>
-    <t>UserIcon_xpath</t>
-  </si>
-  <si>
     <t>My_Sample_Test</t>
   </si>
   <si>
     <t>Verify the login functionality</t>
   </si>
   <si>
-    <t>verifyData</t>
-  </si>
-  <si>
-    <t>XYZ</t>
-  </si>
-  <si>
     <t>Url</t>
   </si>
   <si>
     <t>closebrowser</t>
+  </si>
+  <si>
+    <t>rajenderpal474@gmail.com</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>logInButton_xpath</t>
+  </si>
+  <si>
+    <t>verifyTextPresent</t>
+  </si>
+  <si>
+    <t>LogOut</t>
+  </si>
+  <si>
+    <t>Log out</t>
+  </si>
+  <si>
+    <t>logIn_css</t>
+  </si>
+  <si>
+    <t>logOut_css</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +143,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -189,11 +203,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -231,8 +246,12 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
@@ -573,10 +592,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>13</v>
@@ -593,7 +612,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,7 +653,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -645,10 +664,14 @@
         <v>11</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
@@ -657,29 +680,36 @@
         <v>13</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{8A1C0796-38EA-4290-80F3-AC4DF4377BA3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -713,7 +743,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
@@ -726,40 +756,40 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>12</v>
@@ -767,7 +797,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
@@ -777,56 +807,71 @@
         <v>9</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
